--- a/CSE222-2020 Lab Grades.xlsx
+++ b/CSE222-2020 Lab Grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Lab Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D2607A-C5A2-4320-A57E-3FE2BE6FE51A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DC6F17-7667-4679-AB4A-2CE3499619FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-115" yWindow="-115" windowWidth="24697" windowHeight="13381" xr2:uid="{B5F92FE3-3D2D-404A-B840-6198D4744755}"/>
   </bookViews>
@@ -171,9 +171,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Surname</t>
-  </si>
-  <si>
     <t>Term :</t>
   </si>
   <si>
@@ -271,6 +268,9 @@
   </si>
   <si>
     <t>EFE MERT KOÇAK</t>
+  </si>
+  <si>
+    <t>Last Name</t>
   </si>
 </sst>
 </file>
@@ -1016,27 +1016,6 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1193,6 +1172,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1511,7 +1511,7 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65" x14ac:dyDescent="0.3"/>
@@ -1526,16 +1526,16 @@
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="19"/>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
       <c r="L1" s="20"/>
       <c r="M1" s="3"/>
     </row>
@@ -1543,16 +1543,16 @@
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="19"/>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
       <c r="L2" s="20"/>
       <c r="M2" s="3"/>
     </row>
@@ -1560,14 +1560,14 @@
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
       <c r="L3" s="7"/>
       <c r="M3" s="3"/>
     </row>
@@ -1577,17 +1577,17 @@
       <c r="C4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L4" s="11" t="s">
         <v>0</v>
@@ -1600,17 +1600,17 @@
       <c r="C5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="14"/>
       <c r="K5" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L5" s="15" t="s">
         <v>42</v>
@@ -1635,17 +1635,17 @@
     <row r="7" spans="1:13" ht="15.3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="31" t="s">
-        <v>46</v>
+      <c r="F7" s="83" t="s">
+        <v>79</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>39</v>
@@ -1664,10 +1664,10 @@
     <row r="8" spans="1:13" ht="15.3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="31"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="83"/>
       <c r="G8" s="21" t="s">
         <v>3</v>
       </c>
@@ -1695,16 +1695,16 @@
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="27">
         <v>1</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="32">
         <v>145050003</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="22"/>
@@ -1712,7 +1712,7 @@
       <c r="I9" s="23"/>
       <c r="J9" s="23"/>
       <c r="K9" s="25"/>
-      <c r="L9" s="53"/>
+      <c r="L9" s="46"/>
       <c r="M9" s="1" t="s">
         <v>2</v>
       </c>
@@ -1724,24 +1724,24 @@
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="35">
-        <v>2</v>
-      </c>
-      <c r="D10" s="40">
+      <c r="C10" s="28">
+        <v>2</v>
+      </c>
+      <c r="D10" s="33">
         <v>155050011</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="49"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
       <c r="K10" s="24"/>
-      <c r="L10" s="54"/>
+      <c r="L10" s="47"/>
       <c r="M10" s="1" t="s">
         <v>2</v>
       </c>
@@ -1753,24 +1753,24 @@
       <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="28">
         <v>3</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="33">
         <v>155050014</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="49"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
       <c r="K11" s="24"/>
-      <c r="L11" s="54"/>
+      <c r="L11" s="47"/>
       <c r="M11" s="1" t="s">
         <v>2</v>
       </c>
@@ -1782,24 +1782,24 @@
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="28">
         <v>4</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="33">
         <v>165050007</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="49"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
       <c r="K12" s="24"/>
-      <c r="L12" s="54"/>
+      <c r="L12" s="47"/>
       <c r="M12" s="1" t="s">
         <v>2</v>
       </c>
@@ -1811,28 +1811,28 @@
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="28">
         <v>5</v>
       </c>
-      <c r="D13" s="40">
+      <c r="D13" s="33">
         <v>165050011</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="49"/>
-      <c r="H13" s="66">
+      <c r="G13" s="42"/>
+      <c r="H13" s="59">
         <v>90</v>
       </c>
-      <c r="I13" s="66">
+      <c r="I13" s="59">
         <v>85</v>
       </c>
-      <c r="J13" s="50"/>
+      <c r="J13" s="43"/>
       <c r="K13" s="24"/>
-      <c r="L13" s="54"/>
+      <c r="L13" s="47"/>
       <c r="M13" s="1" t="s">
         <v>2</v>
       </c>
@@ -1844,24 +1844,24 @@
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="28">
         <v>6</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="33">
         <v>165050012</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="49"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
       <c r="K14" s="24"/>
-      <c r="L14" s="54"/>
+      <c r="L14" s="47"/>
       <c r="M14" s="1" t="s">
         <v>2</v>
       </c>
@@ -1873,24 +1873,24 @@
       <c r="B15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="28">
         <v>7</v>
       </c>
-      <c r="D15" s="40">
+      <c r="D15" s="33">
         <v>165050016</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="49"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
       <c r="K15" s="24"/>
-      <c r="L15" s="54"/>
+      <c r="L15" s="47"/>
       <c r="M15" s="1" t="s">
         <v>2</v>
       </c>
@@ -1902,24 +1902,24 @@
       <c r="B16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="28">
         <v>8</v>
       </c>
-      <c r="D16" s="40">
+      <c r="D16" s="33">
         <v>175050004</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="49"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
       <c r="K16" s="24"/>
-      <c r="L16" s="54"/>
+      <c r="L16" s="47"/>
       <c r="M16" s="1" t="s">
         <v>2</v>
       </c>
@@ -1931,26 +1931,26 @@
       <c r="B17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="28">
         <v>9</v>
       </c>
-      <c r="D17" s="40">
+      <c r="D17" s="33">
         <v>185050803</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="49"/>
-      <c r="H17" s="66">
+      <c r="G17" s="42"/>
+      <c r="H17" s="59">
         <v>90</v>
       </c>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
       <c r="K17" s="24"/>
-      <c r="L17" s="54"/>
+      <c r="L17" s="47"/>
       <c r="M17" s="1" t="s">
         <v>2</v>
       </c>
@@ -1962,30 +1962,30 @@
       <c r="B18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="28">
         <v>10</v>
       </c>
-      <c r="D18" s="40">
+      <c r="D18" s="33">
         <v>185050805</v>
       </c>
-      <c r="E18" s="37" t="s">
+      <c r="E18" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="64">
+      <c r="G18" s="57">
         <v>100</v>
       </c>
-      <c r="H18" s="66">
+      <c r="H18" s="59">
         <v>100</v>
       </c>
-      <c r="I18" s="66">
+      <c r="I18" s="59">
         <v>100</v>
       </c>
-      <c r="J18" s="50"/>
+      <c r="J18" s="43"/>
       <c r="K18" s="24"/>
-      <c r="L18" s="54"/>
+      <c r="L18" s="47"/>
       <c r="M18" s="1" t="s">
         <v>2</v>
       </c>
@@ -1997,30 +1997,30 @@
       <c r="B19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="28">
         <v>11</v>
       </c>
-      <c r="D19" s="40">
+      <c r="D19" s="33">
         <v>195050801</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="64">
+      <c r="G19" s="57">
         <v>80</v>
       </c>
-      <c r="H19" s="66">
+      <c r="H19" s="59">
         <v>90</v>
       </c>
-      <c r="I19" s="66">
+      <c r="I19" s="59">
         <v>85</v>
       </c>
-      <c r="J19" s="50"/>
+      <c r="J19" s="43"/>
       <c r="K19" s="24"/>
-      <c r="L19" s="54"/>
+      <c r="L19" s="47"/>
       <c r="M19" s="1" t="s">
         <v>2</v>
       </c>
@@ -2032,28 +2032,28 @@
       <c r="B20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="28">
         <v>12</v>
       </c>
-      <c r="D20" s="40">
+      <c r="D20" s="33">
         <v>195050804</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="49"/>
-      <c r="H20" s="66">
+      <c r="G20" s="42"/>
+      <c r="H20" s="59">
         <v>100</v>
       </c>
-      <c r="I20" s="66">
+      <c r="I20" s="59">
         <v>100</v>
       </c>
-      <c r="J20" s="50"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="56"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="49"/>
       <c r="M20" s="1" t="s">
         <v>2</v>
       </c>
@@ -2065,24 +2065,24 @@
       <c r="B21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="41">
+      <c r="C21" s="34">
         <v>13</v>
       </c>
-      <c r="D21" s="75">
+      <c r="D21" s="68">
         <v>195050806</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="43" t="s">
+      <c r="F21" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="51"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="58"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="51"/>
       <c r="M21" s="1" t="s">
         <v>2</v>
       </c>
@@ -2094,28 +2094,28 @@
       <c r="B22" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="68">
+      <c r="C22" s="61">
         <v>14</v>
       </c>
-      <c r="D22" s="76">
+      <c r="D22" s="69">
         <v>175050001</v>
       </c>
-      <c r="E22" s="71" t="s">
+      <c r="E22" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" s="59">
+      <c r="G22" s="52">
         <v>100</v>
       </c>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60">
+      <c r="H22" s="53"/>
+      <c r="I22" s="53">
         <v>100</v>
       </c>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="61"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="54"/>
       <c r="M22" s="1" t="s">
         <v>2</v>
       </c>
@@ -2127,30 +2127,30 @@
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="69">
+      <c r="C23" s="62">
         <v>15</v>
       </c>
-      <c r="D23" s="77">
+      <c r="D23" s="70">
         <v>175050003</v>
       </c>
-      <c r="E23" s="72" t="s">
+      <c r="E23" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" s="62">
+      <c r="G23" s="55">
         <v>80</v>
       </c>
-      <c r="H23" s="55">
+      <c r="H23" s="48">
         <v>90</v>
       </c>
-      <c r="I23" s="55">
+      <c r="I23" s="48">
         <v>100</v>
       </c>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="56"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="49"/>
       <c r="M23" s="1" t="s">
         <v>2</v>
       </c>
@@ -2162,30 +2162,30 @@
       <c r="B24" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="69">
+      <c r="C24" s="62">
         <v>16</v>
       </c>
-      <c r="D24" s="77">
+      <c r="D24" s="70">
         <v>175050006</v>
       </c>
-      <c r="E24" s="72" t="s">
+      <c r="E24" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24" s="62">
+      <c r="G24" s="55">
         <v>100</v>
       </c>
-      <c r="H24" s="55">
+      <c r="H24" s="48">
         <v>95</v>
       </c>
-      <c r="I24" s="55">
+      <c r="I24" s="48">
         <v>85</v>
       </c>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="56"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="49"/>
       <c r="M24" s="1" t="s">
         <v>2</v>
       </c>
@@ -2197,28 +2197,28 @@
       <c r="B25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="69">
+      <c r="C25" s="62">
         <v>17</v>
       </c>
-      <c r="D25" s="77">
+      <c r="D25" s="70">
         <v>175050007</v>
       </c>
-      <c r="E25" s="72" t="s">
+      <c r="E25" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="G25" s="62"/>
-      <c r="H25" s="55">
+      <c r="G25" s="55"/>
+      <c r="H25" s="48">
         <v>90</v>
       </c>
-      <c r="I25" s="55">
+      <c r="I25" s="48">
         <v>100</v>
       </c>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="56"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="49"/>
       <c r="M25" s="1" t="s">
         <v>2</v>
       </c>
@@ -2230,30 +2230,30 @@
       <c r="B26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="69">
+      <c r="C26" s="62">
         <v>18</v>
       </c>
-      <c r="D26" s="77">
+      <c r="D26" s="70">
         <v>175050008</v>
       </c>
-      <c r="E26" s="72" t="s">
+      <c r="E26" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F26" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="62">
+      <c r="G26" s="55">
         <v>80</v>
       </c>
-      <c r="H26" s="55">
+      <c r="H26" s="48">
         <v>90</v>
       </c>
-      <c r="I26" s="55">
+      <c r="I26" s="48">
         <v>90</v>
       </c>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="56"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="49"/>
       <c r="M26" s="1" t="s">
         <v>2</v>
       </c>
@@ -2265,30 +2265,30 @@
       <c r="B27" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="69">
+      <c r="C27" s="62">
         <v>19</v>
       </c>
-      <c r="D27" s="77">
+      <c r="D27" s="70">
         <v>175050010</v>
       </c>
-      <c r="E27" s="72" t="s">
+      <c r="E27" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="F27" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="62">
+      <c r="G27" s="55">
         <v>100</v>
       </c>
-      <c r="H27" s="55">
+      <c r="H27" s="48">
         <v>90</v>
       </c>
-      <c r="I27" s="55">
+      <c r="I27" s="48">
         <v>85</v>
       </c>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="56"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="49"/>
       <c r="M27" s="1" t="s">
         <v>2</v>
       </c>
@@ -2300,24 +2300,24 @@
       <c r="B28" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="69">
+      <c r="C28" s="62">
         <v>20</v>
       </c>
-      <c r="D28" s="77">
+      <c r="D28" s="70">
         <v>175050012</v>
       </c>
-      <c r="E28" s="72" t="s">
+      <c r="E28" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="F28" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" s="62"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="56"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="49"/>
       <c r="M28" s="1" t="s">
         <v>2</v>
       </c>
@@ -2329,28 +2329,28 @@
       <c r="B29" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="69">
+      <c r="C29" s="62">
         <v>21</v>
       </c>
-      <c r="D29" s="77">
+      <c r="D29" s="70">
         <v>175050013</v>
       </c>
-      <c r="E29" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="G29" s="62">
+      <c r="E29" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="55">
         <v>100</v>
       </c>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55">
+      <c r="H29" s="48"/>
+      <c r="I29" s="48">
         <v>100</v>
       </c>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="56"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="49"/>
       <c r="M29" s="1" t="s">
         <v>2</v>
       </c>
@@ -2362,30 +2362,30 @@
       <c r="B30" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="69">
+      <c r="C30" s="62">
         <v>22</v>
       </c>
-      <c r="D30" s="77">
+      <c r="D30" s="70">
         <v>175050015</v>
       </c>
-      <c r="E30" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="G30" s="62">
+      <c r="E30" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30" s="55">
         <v>80</v>
       </c>
-      <c r="H30" s="55">
+      <c r="H30" s="48">
         <v>90</v>
       </c>
-      <c r="I30" s="55">
+      <c r="I30" s="48">
         <v>85</v>
       </c>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="56"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="49"/>
       <c r="M30" s="1" t="s">
         <v>2</v>
       </c>
@@ -2397,30 +2397,30 @@
       <c r="B31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="69">
+      <c r="C31" s="62">
         <v>23</v>
       </c>
-      <c r="D31" s="77">
+      <c r="D31" s="70">
         <v>175050016</v>
       </c>
-      <c r="E31" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="G31" s="62">
+      <c r="E31" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="G31" s="55">
         <v>100</v>
       </c>
-      <c r="H31" s="55">
+      <c r="H31" s="48">
         <v>95</v>
       </c>
-      <c r="I31" s="55">
+      <c r="I31" s="48">
         <v>100</v>
       </c>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="56"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="49"/>
       <c r="M31" s="1" t="s">
         <v>2</v>
       </c>
@@ -2432,30 +2432,30 @@
       <c r="B32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="69">
+      <c r="C32" s="62">
         <v>24</v>
       </c>
-      <c r="D32" s="77">
+      <c r="D32" s="70">
         <v>175050901</v>
       </c>
-      <c r="E32" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="G32" s="62">
+      <c r="E32" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="55">
         <v>100</v>
       </c>
-      <c r="H32" s="55">
+      <c r="H32" s="48">
         <v>90</v>
       </c>
-      <c r="I32" s="55">
+      <c r="I32" s="48">
         <v>100</v>
       </c>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="56"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="49"/>
       <c r="M32" s="1" t="s">
         <v>2</v>
       </c>
@@ -2463,121 +2463,121 @@
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="69">
+      <c r="C33" s="62">
         <v>25</v>
       </c>
-      <c r="D33" s="77">
+      <c r="D33" s="70">
         <v>185050002</v>
       </c>
-      <c r="E33" s="73" t="s">
+      <c r="E33" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33" s="58">
+        <v>100</v>
+      </c>
+      <c r="H33" s="37"/>
+      <c r="I33" s="60">
+        <v>100</v>
+      </c>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C34" s="62">
+        <v>26</v>
+      </c>
+      <c r="D34" s="70">
+        <v>185050010</v>
+      </c>
+      <c r="E34" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="47" t="s">
+      <c r="F34" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="G33" s="65">
+      <c r="G34" s="55">
         <v>100</v>
       </c>
-      <c r="H33" s="44"/>
-      <c r="I33" s="67">
-        <v>100</v>
-      </c>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="1"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C34" s="69">
-        <v>26</v>
-      </c>
-      <c r="D34" s="77">
-        <v>185050010</v>
-      </c>
-      <c r="E34" s="72" t="s">
+      <c r="H34" s="48">
+        <v>90</v>
+      </c>
+      <c r="I34" s="48">
+        <v>85</v>
+      </c>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="49"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C35" s="62">
+        <v>27</v>
+      </c>
+      <c r="D35" s="70">
+        <v>185050901</v>
+      </c>
+      <c r="E35" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="F34" s="46" t="s">
+      <c r="F35" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="G34" s="62">
-        <v>100</v>
-      </c>
-      <c r="H34" s="55">
+      <c r="G35" s="55">
         <v>90</v>
       </c>
-      <c r="I34" s="55">
+      <c r="H35" s="48">
+        <v>90</v>
+      </c>
+      <c r="I35" s="48">
         <v>85</v>
       </c>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="56"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C35" s="69">
-        <v>27</v>
-      </c>
-      <c r="D35" s="77">
-        <v>185050901</v>
-      </c>
-      <c r="E35" s="72" t="s">
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="49"/>
+    </row>
+    <row r="36" spans="1:13" ht="15.3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="63">
+        <v>28</v>
+      </c>
+      <c r="D36" s="71">
+        <v>185050902</v>
+      </c>
+      <c r="E36" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="F35" s="46" t="s">
+      <c r="F36" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="G35" s="62">
-        <v>90</v>
-      </c>
-      <c r="H35" s="55">
-        <v>90</v>
-      </c>
-      <c r="I35" s="55">
-        <v>85</v>
-      </c>
-      <c r="J35" s="55"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="56"/>
-    </row>
-    <row r="36" spans="1:13" ht="15.3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C36" s="70">
-        <v>28</v>
-      </c>
-      <c r="D36" s="78">
-        <v>185050902</v>
-      </c>
-      <c r="E36" s="74" t="s">
-        <v>70</v>
-      </c>
-      <c r="F36" s="48" t="s">
+      <c r="G36" s="76"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="51"/>
+    </row>
+    <row r="37" spans="1:13" ht="15.3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="72">
+        <v>29</v>
+      </c>
+      <c r="D37" s="73">
+        <v>175050011</v>
+      </c>
+      <c r="E37" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="G36" s="83"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="58"/>
-    </row>
-    <row r="37" spans="1:13" ht="15.3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="79">
-        <v>29</v>
-      </c>
-      <c r="D37" s="80">
-        <v>175050011</v>
-      </c>
-      <c r="E37" s="81" t="s">
-        <v>79</v>
-      </c>
-      <c r="F37" s="82"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="85"/>
-      <c r="I37" s="87">
+      <c r="F37" s="75"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="80">
         <v>80</v>
       </c>
-      <c r="J37" s="85"/>
-      <c r="K37" s="85"/>
-      <c r="L37" s="86"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="78"/>
+      <c r="L37" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="9">
